--- a/MEDIA/_ 1102_001_會計科目餘額明細.xlsx
+++ b/MEDIA/_ 1102_001_會計科目餘額明細.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -356,7 +356,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>森邦(股)會計科目餘額明細(_ 1102_001_2020-10-26~2020-10-28)</t>
+          <t>森邦(股)會計科目餘額明細(_ 1102_001_2020-12-01~2020-12-05)</t>
         </is>
       </c>
     </row>
@@ -419,7 +419,7 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>5324351</v>
+        <v>2408422</v>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
@@ -427,7 +427,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201201</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -437,7 +437,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>花蓮慶豐                                    </t>
+          <t>北市龍江                                    </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -446,29 +446,29 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>9220</v>
+        <v>33713</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>5333571</v>
+        <v>2442135</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>110530</t>
+          <t>112126</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1000521</t>
+          <t>1000602</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201201</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -478,7 +478,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>彰化彰南                                    </t>
+          <t>台中昌平                                    </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -487,29 +487,29 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>18000</v>
+        <v>16390</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>5351571</v>
+        <v>2458525</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>110530</t>
+          <t>112126</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1000046</t>
+          <t>1000041</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201201</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -519,7 +519,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>竹北大漾                                    </t>
+          <t>台中北平                                    </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -528,29 +528,29 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>67649</v>
+        <v>39771</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>5419220</v>
+        <v>2498296</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>110594</t>
+          <t>112126</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1000768</t>
+          <t>1000019</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201202</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -560,7 +560,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>土城員林                                    </t>
+          <t>北市昌吉                                    </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -569,29 +569,29 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>56948</v>
+        <v>15351</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>5476168</v>
+        <v>2513647</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>110594</t>
+          <t>112177</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1000096</t>
+          <t>1000283</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201202</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>北市龍江                                    </t>
+          <t>新竹巨城	                                   </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -610,29 +610,29 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>36625</v>
+        <v>133814</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>5512793</v>
+        <v>2647461</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>110530</t>
+          <t>112177</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1000602</t>
+          <t>1000842</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201202</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>三重頂崁	                                   </t>
+          <t>台中永興	                                   </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -651,29 +651,29 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>8179</v>
+        <v>17385</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>5520972</v>
+        <v>2664846</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>110530</t>
+          <t>112242</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1000796</t>
+          <t>1000863</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201203</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>太平中山                                    </t>
+          <t>羅東羅商                                    </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -692,29 +692,29 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>25260</v>
+        <v>16000</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>5546232</v>
+        <v>2680846</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>110530</t>
+          <t>112242</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1000135</t>
+          <t>1000523</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201203</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>楊梅總店                                    </t>
+          <t>林園仁愛                                    </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -733,29 +733,29 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>280379</v>
+        <v>98239</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5826611</v>
+        <v>2779085</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>110530</t>
+          <t>112242</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1000002</t>
+          <t>1000445</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201203</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -765,7 +765,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>台中北平                                    </t>
+          <t>土城員林                                    </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -774,29 +774,29 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>33646</v>
+        <v>63338</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>5860257</v>
+        <v>2842423</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>110530</t>
+          <t>112242</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1000019</t>
+          <t>1000096</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>20201027</t>
+          <t>20201204</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -806,7 +806,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>北市昌吉                                    </t>
+          <t>竹北大漾                                    </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -815,29 +815,29 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>14843</v>
+        <v>34218</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>5875100</v>
+        <v>2876641</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>110594</t>
+          <t>112295</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>1000283</t>
+          <t>1000768</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20201027</t>
+          <t>20201204</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -847,7 +847,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>岡山壽華                                    </t>
+          <t>梧棲文昌	                                   </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -856,29 +856,29 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>12073</v>
+        <v>5130</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5887173</v>
+        <v>2881771</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>110594</t>
+          <t>112295</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>1000234</t>
+          <t>1000915</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>20201027</t>
+          <t>20201204</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>台中昌平                                    </t>
+          <t>土城中央                                    </t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -897,186 +897,22 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>9920</v>
+        <v>15000</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>5897093</v>
+        <v>2896771</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>110594</t>
+          <t>112295</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>1000041</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>20201027</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>1102  .001     </t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>內壢後站                                    </t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>                              </t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>16583</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>5913676</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>110594</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>1000757</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>20201027</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>1102  .001     </t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>桃園大有                                    </t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>                              </t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>27453</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>5941129</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>110594</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>1000829</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>20201027</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>1102  .001     </t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>台中北平                                    </t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>                              </t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>33172</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>5974301</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>110594</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>1000019</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>20201027</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>1102  .001     </t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>梧棲文昌	                                   </t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>                              </t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>3782</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>5978083</v>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>110594</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>1000915</t>
+          <t>1000397</t>
         </is>
       </c>
     </row>
